--- a/data/trans_dic/P16B13-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B13-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,93%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>88,15; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>91,97; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>87,89; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>88,76; 98,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>98,19; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>90,73; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>92,02; 99,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>97,16; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>92,57; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,64%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>76,91; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>74,0; 94,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>78,63; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>80,7; 97,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>87,83; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>88,56; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>86,18; 98,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>84,3; 95,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>85,69; 98,17</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,49%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>52,49; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>53,01; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>59,67; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>80,08; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>78,51; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>68,11; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>75,52; 97,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>79,19; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,93%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>88,83; 98,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>85,15; 96,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>85,35; 98,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>90,16; 98,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>95,8; 99,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>93,26; 99,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>91,82; 97,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>92,79; 97,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>92,23; 98,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B13-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,22 +686,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,15; 100,0</t>
+          <t>86,76; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,97; 100,0</t>
+          <t>92,95; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,89; 100,0</t>
+          <t>87,36; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,76; 98,77</t>
+          <t>89,4; 98,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +711,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,73; 100,0</t>
+          <t>91,12; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,02; 99,21</t>
+          <t>92,03; 99,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>97,16; 100,0</t>
+          <t>96,91; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,57; 100,0</t>
+          <t>93,31; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,91; 100,0</t>
+          <t>74,55; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,0; 94,06</t>
+          <t>72,86; 93,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,63; 100,0</t>
+          <t>79,22; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,7; 97,83</t>
+          <t>81,28; 97,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,83; 100,0</t>
+          <t>87,39; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,56; 100,0</t>
+          <t>88,75; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,18; 98,48</t>
+          <t>84,83; 98,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,3; 95,82</t>
+          <t>84,03; 95,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,69; 98,17</t>
+          <t>85,2; 98,18</t>
         </is>
       </c>
     </row>
@@ -905,17 +906,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,49; 100,0</t>
+          <t>63,44; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,01; 100,0</t>
+          <t>48,24; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,67; 100,0</t>
+          <t>61,3; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,27 +926,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,08; 100,0</t>
+          <t>78,8; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,51; 100,0</t>
+          <t>78,21; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,11; 100,0</t>
+          <t>69,74; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,52; 97,75</t>
+          <t>72,79; 97,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,19; 100,0</t>
+          <t>78,87; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,83; 98,95</t>
+          <t>87,8; 98,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,15; 96,06</t>
+          <t>85,78; 96,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,35; 98,22</t>
+          <t>85,85; 98,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,34</t>
+          <t>90,23; 98,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,8; 99,53</t>
+          <t>95,78; 99,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,26; 99,32</t>
+          <t>92,91; 99,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,86</t>
+          <t>91,94; 97,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,79; 97,69</t>
+          <t>92,54; 97,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,23; 98,2</t>
+          <t>91,8; 98,3</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para alteraciones digestivas fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45044</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>65943</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>33295</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>69635</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>109616</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>68157</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>114679</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>175559</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101453</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>39863; 45945</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62224; 66946</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29915; 34242</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>64808; 71597</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>107634; 109616</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>63195; 69351</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>108995; 117478</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>171100; 176562</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96661; 103593</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22655</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48073</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45328</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37321</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>54332</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49996</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59975</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>102405</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>95324</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17720; 23769</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40477; 52008</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38686; 48833</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32626; 39266</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>49210; 56314</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>46054; 51894</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>54212; 62931</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>94001; 107095</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>85822; 98894</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14238</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15022</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12613</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23188</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16828</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21079</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38210</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29441</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10000; 15764</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8570; 17767</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8447; 13779</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5251; 6841</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19042; 24165</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13854; 17713</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15764; 22605</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30520; 41061</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24838; 31492</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>81936</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>129037</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>91237</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>113797</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>187136</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>134981</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>195734</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>316174</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>226217</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>75049; 84577</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>120311; 135496</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>83149; 95153</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>107798; 117533</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>182076; 189201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>129107; 138000</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>188423; 200356</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>305713; 322735</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>216466; 231809</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>